--- a/dacs/Plan-ITC.xlsx
+++ b/dacs/Plan-ITC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Máy tính\k xem\savicom\dacs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Máy tính\k xem\ICT-du_lich\dacs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FBCA16-40B6-4570-9C34-E43D0E7E051B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F26E20-734C-4D93-AAF7-EF3CF54AD58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -107,9 +107,6 @@
     <t xml:space="preserve">learn </t>
   </si>
   <si>
-    <t>reactjs</t>
-  </si>
-  <si>
     <t>nodejs</t>
   </si>
   <si>
@@ -153,6 +150,60 @@
   </si>
   <si>
     <t>link github:https://github.com/Phan-Thanh-DaT-2002/ICT-du_lich/tree/main/dacs</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>viết báo cáo</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>learn back-end</t>
+  </si>
+  <si>
+    <t>chỉnh sửa forn-end</t>
+  </si>
+  <si>
+    <t>learn-database</t>
+  </si>
+  <si>
+    <t>learn mysql database</t>
+  </si>
+  <si>
+    <t>learn json database/AJAX</t>
+  </si>
+  <si>
+    <t>learn REST-API/nodejs</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>thử thay đổi database</t>
+  </si>
+  <si>
+    <t>làm lại báo cáo</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>13.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -590,8 +641,8 @@
   </sheetPr>
   <dimension ref="A1:T965"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:G27"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -892,7 +943,9 @@
         <v>44835</v>
       </c>
       <c r="G11" s="14"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -909,10 +962,10 @@
     <row r="12" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>22</v>
@@ -967,7 +1020,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>20</v>
@@ -995,11 +1048,9 @@
       <c r="B15" s="16">
         <v>44564</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>24</v>
-      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>20</v>
@@ -1028,10 +1079,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>20</v>
@@ -1060,10 +1111,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>20</v>
@@ -1121,10 +1172,10 @@
     <row r="19" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>22</v>
@@ -1154,10 +1205,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>20</v>
@@ -1183,13 +1234,13 @@
     <row r="21" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>20</v>
@@ -1218,10 +1269,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>20</v>
@@ -1247,13 +1298,13 @@
     <row r="23" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>20</v>
@@ -1279,18 +1330,20 @@
     <row r="24" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D24" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="15">
+        <v>44861</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1308,12 +1361,22 @@
     </row>
     <row r="25" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="B25" s="13">
+        <v>7</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="15">
+        <v>44868</v>
+      </c>
+      <c r="G25" s="14"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1328,13 +1391,23 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="B26" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="15">
+        <v>44868</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1350,16 +1423,24 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="25" t="s">
-        <v>39</v>
+      <c r="B27" s="13">
+        <v>8</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="C27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="15">
+        <v>44880</v>
+      </c>
+      <c r="G27" s="14"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -1374,13 +1455,23 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="B28" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="15">
+        <v>44880</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1398,12 +1489,22 @@
     </row>
     <row r="29" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="B29" s="13">
+        <v>9</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="15">
+        <v>44880</v>
+      </c>
+      <c r="G29" s="14"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1420,11 +1521,21 @@
     </row>
     <row r="30" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="B30" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="15">
+        <v>44880</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -1442,12 +1553,22 @@
     </row>
     <row r="31" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="B31" s="13">
+        <v>10</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="15">
+        <v>44887</v>
+      </c>
+      <c r="G31" s="14"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -1464,11 +1585,21 @@
     </row>
     <row r="32" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="B32" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="15">
+        <v>44887</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -1486,12 +1617,22 @@
     </row>
     <row r="33" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="B33" s="13">
+        <v>11</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="15">
+        <v>44892</v>
+      </c>
+      <c r="G33" s="14"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -1508,11 +1649,21 @@
     </row>
     <row r="34" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="B34" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="15">
+        <v>44892</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -1530,12 +1681,22 @@
     </row>
     <row r="35" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="B35" s="13">
+        <v>12</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="15">
+        <v>44898</v>
+      </c>
+      <c r="G35" s="14"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -1552,11 +1713,21 @@
     </row>
     <row r="36" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="B36" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="15">
+        <v>44898</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -1574,12 +1745,22 @@
     </row>
     <row r="37" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="B37" s="13">
+        <v>13</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="15">
+        <v>44917</v>
+      </c>
+      <c r="G37" s="14"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -1594,13 +1775,23 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="B38" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="15">
+        <v>44920</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -1616,14 +1807,8 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -1638,14 +1823,8 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -1660,7 +1839,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1682,7 +1861,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1704,14 +1883,16 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+      <c r="B43" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -1726,7 +1907,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1748,7 +1929,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1770,7 +1951,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1792,7 +1973,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1814,7 +1995,7 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1836,7 +2017,7 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1858,7 +2039,7 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1880,7 +2061,7 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1902,7 +2083,7 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1924,7 +2105,7 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1946,7 +2127,7 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1968,7 +2149,7 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1990,7 +2171,7 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2012,7 +2193,7 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -22013,7 +22194,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B43:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
